--- a/xls/square_high_un_16_tri3_9.xlsx
+++ b/xls/square_high_un_16_tri3_9.xlsx
@@ -13,7 +13,7 @@
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +22,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>type w</t>
+  </si>
+  <si>
+    <t>nʷ</t>
+  </si>
+  <si>
+    <t>type φ</t>
+  </si>
+  <si>
+    <t>nᵠ</t>
+  </si>
+  <si>
+    <t>type Q</t>
+  </si>
+  <si>
+    <t>nˢ</t>
+  </si>
+  <si>
+    <t>type M</t>
+  </si>
+  <si>
+    <t>nᵐ</t>
+  </si>
+  <si>
+    <t>L₂w</t>
+  </si>
+  <si>
+    <t>L₂φ</t>
+  </si>
+  <si>
+    <t>L₂Q</t>
+  </si>
+  <si>
+    <t>ReproducingKernel{:Linear2D, :□, :CubicSpline}</t>
+  </si>
+  <si>
+    <t>tri3</t>
+  </si>
+  <si>
+    <t>PiecewisePolynomial{:Linear2D}</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +418,888 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>340</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>486</v>
+      </c>
+      <c r="I9">
+        <v>-0.8651363878378812</v>
+      </c>
+      <c r="J9">
+        <v>-0.8730531876407291</v>
+      </c>
+      <c r="K9">
+        <v>-0.4237295402352641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10">
+        <v>-1.46225250860057</v>
+      </c>
+      <c r="J10">
+        <v>-1.4769262794522642</v>
+      </c>
+      <c r="K10">
+        <v>-0.6194154437084529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>340</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>144</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>726</v>
+      </c>
+      <c r="I11">
+        <v>-1.78240978667546</v>
+      </c>
+      <c r="J11">
+        <v>-1.4978225663628308</v>
+      </c>
+      <c r="K11">
+        <v>-0.4729078933449733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>340</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>169</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>864</v>
+      </c>
+      <c r="I12">
+        <v>-1.6668401122894299</v>
+      </c>
+      <c r="J12">
+        <v>-1.3689286560987255</v>
+      </c>
+      <c r="K12">
+        <v>-0.2432300113939298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>340</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>196</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>1014</v>
+      </c>
+      <c r="I13">
+        <v>-1.345696352716398</v>
+      </c>
+      <c r="J13">
+        <v>-1.162302274774742</v>
+      </c>
+      <c r="K13">
+        <v>0.079636516340899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>340</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>225</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>1176</v>
+      </c>
+      <c r="I14">
+        <v>-1.1509989938372696</v>
+      </c>
+      <c r="J14">
+        <v>-1.019209978234591</v>
+      </c>
+      <c r="K14">
+        <v>0.13723062624493756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>340</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>1350</v>
+      </c>
+      <c r="I15">
+        <v>-0.912084062384235</v>
+      </c>
+      <c r="J15">
+        <v>-0.807464878903489</v>
+      </c>
+      <c r="K15">
+        <v>0.4118899858684773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>340</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>289</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>1536</v>
+      </c>
+      <c r="I16">
+        <v>-0.8591799255766261</v>
+      </c>
+      <c r="J16">
+        <v>-0.7718211148750651</v>
+      </c>
+      <c r="K16">
+        <v>0.5655884327564439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>340</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>324</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>1734</v>
+      </c>
+      <c r="I17">
+        <v>-0.46442516409620516</v>
+      </c>
+      <c r="J17">
+        <v>-0.42328302992691746</v>
+      </c>
+      <c r="K17">
+        <v>1.1699274585852195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>340</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>361</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>1944</v>
+      </c>
+      <c r="I18">
+        <v>-0.24831361532274493</v>
+      </c>
+      <c r="J18">
+        <v>-0.22536234818925702</v>
+      </c>
+      <c r="K18">
+        <v>1.8380695253584218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>2166</v>
+      </c>
+      <c r="I19">
+        <v>3.417705389920899e-5</v>
+      </c>
+      <c r="J19">
+        <v>-0.00027080022837767584</v>
+      </c>
+      <c r="K19">
+        <v>2.4928327193814535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>340</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>441</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>2400</v>
+      </c>
+      <c r="I20">
+        <v>-1.2784787212094131e-6</v>
+      </c>
+      <c r="J20">
+        <v>-2.987856998048479e-6</v>
+      </c>
+      <c r="K20">
+        <v>1.8011281372522527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>340</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>484</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>2646</v>
+      </c>
+      <c r="I21">
+        <v>-1.114407216899674e-6</v>
+      </c>
+      <c r="J21">
+        <v>-1.4961672089312933e-6</v>
+      </c>
+      <c r="K21">
+        <v>1.6040369975098578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>340</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>529</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>2904</v>
+      </c>
+      <c r="I22">
+        <v>-1.1305962273048808e-6</v>
+      </c>
+      <c r="J22">
+        <v>-1.2712220669173094e-6</v>
+      </c>
+      <c r="K22">
+        <v>1.5389521080173827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>340</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>576</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>3174</v>
+      </c>
+      <c r="I23">
+        <v>-5.965480084029491e-7</v>
+      </c>
+      <c r="J23">
+        <v>-8.716337638194186e-7</v>
+      </c>
+      <c r="K23">
+        <v>1.499394277940148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>340</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>625</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>3456</v>
+      </c>
+      <c r="I24">
+        <v>-5.848373542065001e-7</v>
+      </c>
+      <c r="J24">
+        <v>-7.951993840389422e-7</v>
+      </c>
+      <c r="K24">
+        <v>1.4672737168834553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>340</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>676</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>3750</v>
+      </c>
+      <c r="I25">
+        <v>-5.090305538758687e-7</v>
+      </c>
+      <c r="J25">
+        <v>-6.879273051972994e-7</v>
+      </c>
+      <c r="K25">
+        <v>1.4341931338249352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>340</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>729</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>4056</v>
+      </c>
+      <c r="I26">
+        <v>-4.0185851006975287e-7</v>
+      </c>
+      <c r="J26">
+        <v>-5.694406465527052e-7</v>
+      </c>
+      <c r="K26">
+        <v>1.3992852703134342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>340</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>784</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>4374</v>
+      </c>
+      <c r="I27">
+        <v>-4.23297754914756e-7</v>
+      </c>
+      <c r="J27">
+        <v>-5.470789953524082e-7</v>
+      </c>
+      <c r="K27">
+        <v>1.375660987774468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>340</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>841</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>4704</v>
+      </c>
+      <c r="I28">
+        <v>-3.3777326912268683e-7</v>
+      </c>
+      <c r="J28">
+        <v>-4.5162336790504375e-7</v>
+      </c>
+      <c r="K28">
+        <v>1.338934093210214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>340</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>900</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>5046</v>
+      </c>
+      <c r="I29">
+        <v>-4.06845092881346e-7</v>
+      </c>
+      <c r="J29">
+        <v>-4.863549800067205e-7</v>
+      </c>
+      <c r="K29">
+        <v>1.3359208660046864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>340</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>961</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>5400</v>
+      </c>
+      <c r="I30">
+        <v>-3.4475091131476505e-7</v>
+      </c>
+      <c r="J30">
+        <v>-4.1838486680634687e-7</v>
+      </c>
+      <c r="K30">
+        <v>1.3060527626931369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>340</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>1024</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>5766</v>
+      </c>
+      <c r="I31">
+        <v>-3.5042017793431704e-7</v>
+      </c>
+      <c r="J31">
+        <v>-4.220576956548549e-7</v>
+      </c>
+      <c r="K31">
+        <v>1.3061433791709258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>340</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>1089</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>6144</v>
+      </c>
+      <c r="I32">
+        <v>-3.2468755384143914e-7</v>
+      </c>
+      <c r="J32">
+        <v>-3.893658069983192e-7</v>
+      </c>
+      <c r="K32">
+        <v>1.2882863909085123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xls/square_high_un_16_tri3_9.xlsx
+++ b/xls/square_high_un_16_tri3_9.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9">
-        <v>486</v>
+        <v>618</v>
       </c>
       <c r="I9">
-        <v>-0.8651363878378812</v>
+        <v>-1.6096025386667203</v>
       </c>
       <c r="J9">
-        <v>-0.8730531876407291</v>
+        <v>-1.62656138554015</v>
       </c>
       <c r="K9">
-        <v>-0.4237295402352641</v>
+        <v>-0.8211900287354186</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10">
-        <v>600</v>
+        <v>864</v>
       </c>
       <c r="I10">
-        <v>-1.46225250860057</v>
+        <v>-1.5918557705299867</v>
       </c>
       <c r="J10">
-        <v>-1.4769262794522642</v>
+        <v>-1.2818905896905655</v>
       </c>
       <c r="K10">
-        <v>-0.6194154437084529</v>
+        <v>-0.20295598419374503</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F11">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11">
-        <v>726</v>
+        <v>906</v>
       </c>
       <c r="I11">
-        <v>-1.78240978667546</v>
+        <v>-1.6068320195410504</v>
       </c>
       <c r="J11">
-        <v>-1.4978225663628308</v>
+        <v>-1.3025260614452328</v>
       </c>
       <c r="K11">
-        <v>-0.4729078933449733</v>
+        <v>-0.18568003367576652</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12">
-        <v>864</v>
+        <v>1104</v>
       </c>
       <c r="I12">
-        <v>-1.6668401122894299</v>
+        <v>-1.157829333014923</v>
       </c>
       <c r="J12">
-        <v>-1.3689286560987255</v>
+        <v>-1.0108675167969414</v>
       </c>
       <c r="K12">
-        <v>-0.2432300113939298</v>
+        <v>0.06836943710062814</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13">
-        <v>1014</v>
+        <v>1266</v>
       </c>
       <c r="I13">
-        <v>-1.345696352716398</v>
+        <v>-1.073177486058484</v>
       </c>
       <c r="J13">
-        <v>-1.162302274774742</v>
+        <v>-0.9304774966646169</v>
       </c>
       <c r="K13">
-        <v>0.079636516340899</v>
+        <v>0.2525594213677538</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14">
-        <v>1176</v>
+        <v>1362</v>
       </c>
       <c r="I14">
-        <v>-1.1509989938372696</v>
+        <v>-1.0848630257158665</v>
       </c>
       <c r="J14">
-        <v>-1.019209978234591</v>
+        <v>-0.9483317959115607</v>
       </c>
       <c r="K14">
-        <v>0.13723062624493756</v>
+        <v>0.23258069820679866</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
-        <v>1350</v>
+        <v>1596</v>
       </c>
       <c r="I15">
-        <v>-0.912084062384235</v>
+        <v>-0.7583647185615595</v>
       </c>
       <c r="J15">
-        <v>-0.807464878903489</v>
+        <v>-0.7105801042259244</v>
       </c>
       <c r="K15">
-        <v>0.4118899858684773</v>
+        <v>0.5087816517543994</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1536</v>
+        <v>1842</v>
       </c>
       <c r="I16">
-        <v>-0.8591799255766261</v>
+        <v>-0.7908425907309148</v>
       </c>
       <c r="J16">
-        <v>-0.7718211148750651</v>
+        <v>-0.7270920470709898</v>
       </c>
       <c r="K16">
-        <v>0.5655884327564439</v>
+        <v>0.28657902132243035</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-0.46442516409620516</v>
+        <v>-0.06326025630995459</v>
       </c>
       <c r="J17">
-        <v>-0.42328302992691746</v>
+        <v>-0.05649461860224881</v>
       </c>
       <c r="K17">
-        <v>1.1699274585852195</v>
+        <v>1.9686944204063999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-0.24831361532274493</v>
+        <v>-5.059204839279462e-6</v>
       </c>
       <c r="J18">
-        <v>-0.22536234818925702</v>
+        <v>-6.008459039480426e-6</v>
       </c>
       <c r="K18">
-        <v>1.8380695253584218</v>
+        <v>1.8978282863267848</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>3.417705389920899e-5</v>
+        <v>-4.841660292847072e-7</v>
       </c>
       <c r="J19">
-        <v>-0.00027080022837767584</v>
+        <v>-9.802743606134474e-7</v>
       </c>
       <c r="K19">
-        <v>2.4928327193814535</v>
+        <v>1.5575814085075437</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-1.2784787212094131e-6</v>
+        <v>-3.386793635842841e-7</v>
       </c>
       <c r="J20">
-        <v>-2.987856998048479e-6</v>
+        <v>-6.459320027395263e-7</v>
       </c>
       <c r="K20">
-        <v>1.8011281372522527</v>
+        <v>1.4600424469876196</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-1.114407216899674e-6</v>
+        <v>-3.676756090610499e-7</v>
       </c>
       <c r="J21">
-        <v>-1.4961672089312933e-6</v>
+        <v>-6.043630050823402e-7</v>
       </c>
       <c r="K21">
-        <v>1.6040369975098578</v>
+        <v>1.430481527237142</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-1.1305962273048808e-6</v>
+        <v>-3.891903189626053e-7</v>
       </c>
       <c r="J22">
-        <v>-1.2712220669173094e-6</v>
+        <v>-5.156780394146412e-7</v>
       </c>
       <c r="K22">
-        <v>1.5389521080173827</v>
+        <v>1.3657772877717773</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-5.965480084029491e-7</v>
+        <v>-3.4255337960492794e-7</v>
       </c>
       <c r="J23">
-        <v>-8.716337638194186e-7</v>
+        <v>-4.4393547940731316e-7</v>
       </c>
       <c r="K23">
-        <v>1.499394277940148</v>
+        <v>1.3311201002205797</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-5.848373542065001e-7</v>
+        <v>-3.932058177340432e-7</v>
       </c>
       <c r="J24">
-        <v>-7.951993840389422e-7</v>
+        <v>-4.562474050045901e-7</v>
       </c>
       <c r="K24">
-        <v>1.4672737168834553</v>
+        <v>1.31568124418207</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-5.090305538758687e-7</v>
+        <v>-3.6885635961350004e-7</v>
       </c>
       <c r="J25">
-        <v>-6.879273051972994e-7</v>
+        <v>-4.395154810777183e-7</v>
       </c>
       <c r="K25">
-        <v>1.4341931338249352</v>
+        <v>1.3127840409548481</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1071,22 +1071,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-4.0185851006975287e-7</v>
+        <v>-3.199261710983343e-7</v>
       </c>
       <c r="J26">
-        <v>-5.694406465527052e-7</v>
+        <v>-3.846278877274604e-7</v>
       </c>
       <c r="K26">
-        <v>1.3992852703134342</v>
+        <v>1.2854860717502754</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1106,22 +1106,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-4.23297754914756e-7</v>
+        <v>-3.357508678410887e-7</v>
       </c>
       <c r="J27">
-        <v>-5.470789953524082e-7</v>
+        <v>-3.926050698194109e-7</v>
       </c>
       <c r="K27">
-        <v>1.375660987774468</v>
+        <v>1.284765629074277</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1141,22 +1141,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-3.3777326912268683e-7</v>
+        <v>-3.4057087675447203e-7</v>
       </c>
       <c r="J28">
-        <v>-4.5162336790504375e-7</v>
+        <v>-3.9632516862003516e-7</v>
       </c>
       <c r="K28">
-        <v>1.338934093210214</v>
+        <v>1.2857719571825617</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1176,22 +1176,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-4.06845092881346e-7</v>
+        <v>-3.641264550022496e-7</v>
       </c>
       <c r="J29">
-        <v>-4.863549800067205e-7</v>
+        <v>-4.147370421560905e-7</v>
       </c>
       <c r="K29">
-        <v>1.3359208660046864</v>
+        <v>1.2913087980598732</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1211,22 +1211,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-3.4475091131476505e-7</v>
+        <v>-3.353211694099197e-7</v>
       </c>
       <c r="J30">
-        <v>-4.1838486680634687e-7</v>
+        <v>-3.834826289947935e-7</v>
       </c>
       <c r="K30">
-        <v>1.3060527626931369</v>
+        <v>1.2752414013668167</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1246,22 +1246,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-3.5042017793431704e-7</v>
+        <v>-3.281151456674855e-7</v>
       </c>
       <c r="J31">
-        <v>-4.220576956548549e-7</v>
+        <v>-3.7374394752660396e-7</v>
       </c>
       <c r="K31">
-        <v>1.3061433791709258</v>
+        <v>1.269122629505254</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1281,22 +1281,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-3.2468755384143914e-7</v>
+        <v>-3.15094016074009e-7</v>
       </c>
       <c r="J32">
-        <v>-3.893658069983192e-7</v>
+        <v>-3.646210012597708e-7</v>
       </c>
       <c r="K32">
-        <v>1.2882863909085123</v>
+        <v>1.2668449396752794</v>
       </c>
     </row>
   </sheetData>
